--- a/doc/pin_assign.xlsx
+++ b/doc/pin_assign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikuriya/workspace/stm32/stm32f303motor/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C87335-2B45-814C-B90D-636B918A805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E8608-BB32-B247-871D-AFA15AE7CDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9263925F-3506-EB44-B566-BE581B0DC48F}"/>
   </bookViews>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC29DB1-35D2-4942-83C5-115B399FE282}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
